--- a/05_Evaluation/recommendation_strategy_development_sheet.xlsx
+++ b/05_Evaluation/recommendation_strategy_development_sheet.xlsx
@@ -368,13 +368,13 @@
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>29</xdr:row>
-      <xdr:rowOff>45357</xdr:rowOff>
+      <xdr:rowOff>44449</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>1341417</xdr:colOff>
+      <xdr:colOff>1341416</xdr:colOff>
       <xdr:row>73</xdr:row>
-      <xdr:rowOff>169509</xdr:rowOff>
+      <xdr:rowOff>169508</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -409,13 +409,7 @@
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" displayName="Table1" ref="B6:E27">
-  <autoFilter ref="B6:E27">
-    <filterColumn colId="3">
-      <customFilters and="1">
-        <customFilter operator="notEqual" val=" "/>
-      </customFilters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="B6:E27"/>
   <tableColumns count="4">
     <tableColumn id="1" name="Feature"/>
     <tableColumn id="2" name="Discussion (Hypothesis)"/>
@@ -1001,7 +995,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" hidden="1">
+    <row r="9">
       <c r="B9" t="s">
         <v>17</v>
       </c>
@@ -1012,7 +1006,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="10" hidden="1">
+    <row r="10">
       <c r="B10" t="s">
         <v>20</v>
       </c>
@@ -1037,7 +1031,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="12" hidden="1">
+    <row r="12">
       <c r="B12" t="s">
         <v>26</v>
       </c>
@@ -1062,7 +1056,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="14" hidden="1">
+    <row r="14">
       <c r="B14" t="s">
         <v>32</v>
       </c>
@@ -1087,7 +1081,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="16" hidden="1">
+    <row r="16">
       <c r="B16" t="s">
         <v>39</v>
       </c>
@@ -1098,7 +1092,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="17" hidden="1">
+    <row r="17">
       <c r="B17" t="s">
         <v>42</v>
       </c>
@@ -1165,7 +1159,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="22" hidden="1">
+    <row r="22">
       <c r="B22" t="s">
         <v>57</v>
       </c>
@@ -1190,7 +1184,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="24" hidden="1">
+    <row r="24">
       <c r="B24" t="s">
         <v>62</v>
       </c>
@@ -1201,7 +1195,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="25" hidden="1">
+    <row r="25">
       <c r="B25" t="s">
         <v>64</v>
       </c>
@@ -1212,7 +1206,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="26" hidden="1">
+    <row r="26">
       <c r="B26" t="s">
         <v>66</v>
       </c>
